--- a/data_frame_csv/covid_cases_validated.xlsx
+++ b/data_frame_csv/covid_cases_validated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>date</t>
   </si>
@@ -27,10 +27,37 @@
     <t>confirmed</t>
   </si>
   <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
     <t>2020-07-04</t>
   </si>
   <si>
     <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
   </si>
   <si>
     <t>2020-07-01</t>
@@ -883,15 +910,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -907,23 +934,23 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11166475</v>
+        <v>12986309</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2">
+        <v>44024</v>
+      </c>
+      <c r="B3">
+        <v>12791031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>11067453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>44014</v>
-      </c>
       <c r="B4">
-        <v>10862570</v>
+        <v>12706211</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -931,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10687287</v>
+        <v>12487562</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -939,7 +966,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10469512</v>
+        <v>12258156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -947,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10296269</v>
+        <v>12031527</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -955,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10140612</v>
+        <v>11820215</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -963,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9974534</v>
+        <v>11611210</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -971,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9796832</v>
+        <v>11441040</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -979,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9605264</v>
+        <v>11259376</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -987,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9426005</v>
+        <v>11067453</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -995,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9259115</v>
+        <v>10862570</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1003,7 +1030,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9094459</v>
+        <v>10687287</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1011,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>8952206</v>
+        <v>10469512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1019,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>8788526</v>
+        <v>10296269</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1027,7 +1054,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8661818</v>
+        <v>10140612</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1035,7 +1062,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8485884</v>
+        <v>9974534</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1043,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8346926</v>
+        <v>9796832</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1051,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8170957</v>
+        <v>9605264</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1059,7 +1086,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8031530</v>
+        <v>9426005</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1067,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7898013</v>
+        <v>9259115</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1075,7 +1102,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7764044</v>
+        <v>9094459</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1083,7 +1110,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7630005</v>
+        <v>8952206</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1091,7 +1118,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7511687</v>
+        <v>8788526</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1099,7 +1126,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7357487</v>
+        <v>8661818</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1107,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7239602</v>
+        <v>8485884</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1115,7 +1142,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7116301</v>
+        <v>8346926</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1123,7 +1150,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7008005</v>
+        <v>8170957</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1131,7 +1158,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6894350</v>
+        <v>8031530</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1139,7 +1166,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6767607</v>
+        <v>7898013</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1147,7 +1174,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6630422</v>
+        <v>7764044</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1155,7 +1182,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>6506082</v>
+        <v>7630005</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1163,7 +1190,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>6375770</v>
+        <v>7511687</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1171,7 +1198,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>6263390</v>
+        <v>7357487</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1179,7 +1206,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6164489</v>
+        <v>7239602</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1187,7 +1214,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>6056561</v>
+        <v>7116301</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1195,7 +1222,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>5921853</v>
+        <v>7008005</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1203,7 +1230,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5806525</v>
+        <v>6894350</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1211,7 +1238,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>5689382</v>
+        <v>6767607</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1219,7 +1246,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>5587232</v>
+        <v>6630422</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1227,7 +1254,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>5492676</v>
+        <v>6506082</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1235,7 +1262,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5405236</v>
+        <v>6375770</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1243,7 +1270,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>5307992</v>
+        <v>6263390</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1251,7 +1278,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>5208470</v>
+        <v>6164489</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1259,7 +1286,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>5100078</v>
+        <v>6056561</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1267,7 +1294,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4994165</v>
+        <v>5921853</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1275,7 +1302,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4895198</v>
+        <v>5806525</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1283,7 +1310,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>4799688</v>
+        <v>5689382</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1291,7 +1318,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4711379</v>
+        <v>5587232</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1299,7 +1326,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>4631845</v>
+        <v>5492676</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1307,7 +1334,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>4540125</v>
+        <v>5405236</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1315,7 +1342,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>4439942</v>
+        <v>5307992</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1323,7 +1350,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>4344822</v>
+        <v>5208470</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1331,7 +1358,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>4259760</v>
+        <v>5100078</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1339,7 +1366,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4175344</v>
+        <v>4994165</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1347,7 +1374,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4099553</v>
+        <v>4895198</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1355,7 +1382,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>4021873</v>
+        <v>4799688</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1363,7 +1390,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>3935930</v>
+        <v>4711379</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1371,7 +1398,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3843585</v>
+        <v>4631845</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1379,7 +1406,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3753229</v>
+        <v>4540125</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1387,7 +1414,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3660582</v>
+        <v>4439942</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1395,7 +1422,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3580956</v>
+        <v>4344822</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1403,7 +1430,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>3504649</v>
+        <v>4259760</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1411,7 +1438,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3425295</v>
+        <v>4175344</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1419,7 +1446,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3341746</v>
+        <v>4099553</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1427,7 +1454,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3254831</v>
+        <v>4021873</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1435,7 +1462,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3192161</v>
+        <v>3935930</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1443,7 +1470,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3114674</v>
+        <v>3843585</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1451,7 +1478,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>3040045</v>
+        <v>3753229</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1459,7 +1486,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2969756</v>
+        <v>3660582</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1467,7 +1494,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2895027</v>
+        <v>3580956</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1475,7 +1502,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2808856</v>
+        <v>3504649</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1483,7 +1510,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2707035</v>
+        <v>3425295</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1491,7 +1518,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2621587</v>
+        <v>3341746</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1499,7 +1526,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2547476</v>
+        <v>3254831</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1507,7 +1534,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2470460</v>
+        <v>3192161</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1515,7 +1542,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2399600</v>
+        <v>3114674</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1523,7 +1550,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2316012</v>
+        <v>3040045</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1531,7 +1558,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2238500</v>
+        <v>2969756</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1539,7 +1566,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2151018</v>
+        <v>2895027</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1547,7 +1574,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2054499</v>
+        <v>2808856</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1555,7 +1582,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1974713</v>
+        <v>2707035</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1563,7 +1590,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1915946</v>
+        <v>2621587</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1571,7 +1598,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1845341</v>
+        <v>2547476</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1579,7 +1606,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1770204</v>
+        <v>2470460</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1587,7 +1614,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1690454</v>
+        <v>2399600</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1595,7 +1622,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1594159</v>
+        <v>2316012</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1603,7 +1630,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1509914</v>
+        <v>2238500</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1611,7 +1638,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1424922</v>
+        <v>2151018</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1619,7 +1646,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1343959</v>
+        <v>2054499</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1627,7 +1654,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1270991</v>
+        <v>1974713</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1635,7 +1662,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1196311</v>
+        <v>1915946</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1643,7 +1670,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1094856</v>
+        <v>1845341</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1651,7 +1678,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1012130</v>
+        <v>1770204</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1659,7 +1686,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>931610</v>
+        <v>1690454</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1667,7 +1694,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>856527</v>
+        <v>1594159</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -1675,7 +1702,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>781427</v>
+        <v>1509914</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1683,7 +1710,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>719190</v>
+        <v>1424922</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -1691,7 +1718,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>659795</v>
+        <v>1343959</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1699,7 +1726,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>592394</v>
+        <v>1270991</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -1707,7 +1734,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>528724</v>
+        <v>1196311</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1715,7 +1742,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>466882</v>
+        <v>1094856</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -1723,7 +1750,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>417964</v>
+        <v>1012130</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -1731,7 +1758,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>377575</v>
+        <v>931610</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -1739,7 +1766,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>334762</v>
+        <v>856527</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -1747,7 +1774,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>303509</v>
+        <v>781427</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -1755,7 +1782,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>271122</v>
+        <v>719190</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -1763,7 +1790,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>241390</v>
+        <v>659795</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -1771,7 +1798,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>213506</v>
+        <v>592394</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -1779,7 +1806,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>195637</v>
+        <v>528724</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -1787,7 +1814,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>178565</v>
+        <v>466882</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -1795,7 +1822,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>139751</v>
+        <v>417964</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -1803,7 +1830,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>158781</v>
+        <v>377575</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -1811,7 +1838,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>144527</v>
+        <v>334762</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -1819,7 +1846,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>109467</v>
+        <v>303509</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -1827,7 +1854,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>125252</v>
+        <v>271122</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -1835,7 +1862,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>117569</v>
+        <v>241390</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -1843,7 +1870,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>112077</v>
+        <v>213506</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -1851,7 +1878,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>108774</v>
+        <v>195637</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -1859,7 +1886,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>104783</v>
+        <v>178565</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -1867,7 +1894,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>100872</v>
+        <v>139751</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -1875,7 +1902,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>96973</v>
+        <v>158781</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -1883,7 +1910,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>94071</v>
+        <v>144527</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -1891,7 +1918,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>91910</v>
+        <v>109467</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -1899,7 +1926,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>89450</v>
+        <v>125252</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -1907,7 +1934,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>87549</v>
+        <v>117569</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -1915,7 +1942,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>85217</v>
+        <v>112077</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -1923,7 +1950,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>83208</v>
+        <v>108774</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -1931,7 +1958,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>81795</v>
+        <v>104783</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -1939,7 +1966,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>80579</v>
+        <v>100872</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -1947,7 +1974,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>79635</v>
+        <v>96973</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -1955,7 +1982,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>78657</v>
+        <v>94071</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -1963,7 +1990,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>78121</v>
+        <v>91910</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -1971,7 +1998,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>77718</v>
+        <v>89450</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -1979,7 +2006,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>76141</v>
+        <v>87549</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -1987,7 +2014,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>75304</v>
+        <v>85217</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -1995,7 +2022,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>74834</v>
+        <v>83208</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -2003,7 +2030,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>74435</v>
+        <v>81795</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -2011,7 +2038,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>72688</v>
+        <v>80579</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -2019,7 +2046,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>70751</v>
+        <v>79635</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -2027,7 +2054,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>68618</v>
+        <v>78657</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -2035,7 +2062,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>66473</v>
+        <v>78121</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -2043,7 +2070,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>60098</v>
+        <v>77718</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -2051,7 +2078,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>44908</v>
+        <v>76141</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -2059,7 +2086,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>44582</v>
+        <v>75304</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -2067,7 +2094,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>42500</v>
+        <v>74834</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -2075,7 +2102,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>39981</v>
+        <v>74435</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -2083,7 +2110,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>36944</v>
+        <v>72688</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -2091,7 +2118,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>34245</v>
+        <v>70751</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -2099,7 +2126,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>30695</v>
+        <v>68618</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -2107,7 +2134,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>27516</v>
+        <v>66473</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -2115,7 +2142,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>23833</v>
+        <v>60098</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -2123,7 +2150,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>19750</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -2131,7 +2158,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>16694</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -2139,7 +2166,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>12049</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -2147,7 +2174,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>22008</v>
+        <v>39981</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -2155,7 +2182,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>18160</v>
+        <v>36944</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -2163,7 +2190,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>14400</v>
+        <v>34245</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -2171,7 +2198,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>11743</v>
+        <v>30695</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -2179,7 +2206,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>8504</v>
+        <v>27516</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -2187,7 +2214,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>5044</v>
+        <v>23833</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -2195,7 +2222,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>3556</v>
+        <v>19750</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -2203,7 +2230,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2379</v>
+        <v>16694</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -2211,7 +2238,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>1594</v>
+        <v>12049</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -2219,7 +2246,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1208</v>
+        <v>22008</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -2227,6 +2254,78 @@
         <v>166</v>
       </c>
       <c r="B167">
+        <v>18160</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>11743</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
         <v>555</v>
       </c>
     </row>

--- a/data_frame_csv/covid_cases_validated.xlsx
+++ b/data_frame_csv/covid_cases_validated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>date</t>
   </si>
@@ -27,7 +27,19 @@
     <t>confirmed</t>
   </si>
   <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
     <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
   </si>
   <si>
     <t>2020-07-11</t>
@@ -910,15 +922,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -934,15 +946,15 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12986309</v>
+        <v>13970798</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>44024</v>
+        <v>44028</v>
       </c>
       <c r="B3">
-        <v>12791031</v>
+        <v>13755958</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -950,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12706211</v>
+        <v>13541118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -958,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12487562</v>
+        <v>13311117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -966,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>12258156</v>
+        <v>13091650</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -974,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12031527</v>
+        <v>12898144</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -982,7 +994,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11820215</v>
+        <v>12706211</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -990,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>11611210</v>
+        <v>12487562</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -998,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11441040</v>
+        <v>12258156</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1006,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11259376</v>
+        <v>12031527</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1014,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11067453</v>
+        <v>11820215</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1022,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10862570</v>
+        <v>11611210</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1030,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>10687287</v>
+        <v>11441040</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1038,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10469512</v>
+        <v>11259376</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1046,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10296269</v>
+        <v>11067453</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1054,7 +1066,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10140612</v>
+        <v>10862570</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1062,7 +1074,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9974534</v>
+        <v>10687287</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1070,7 +1082,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>9796832</v>
+        <v>10469512</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1078,7 +1090,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>9605264</v>
+        <v>10296269</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1086,7 +1098,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9426005</v>
+        <v>10140612</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1094,7 +1106,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>9259115</v>
+        <v>9974534</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1102,7 +1114,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9094459</v>
+        <v>9796832</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1110,7 +1122,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>8952206</v>
+        <v>9605264</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1118,7 +1130,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8788526</v>
+        <v>9426005</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1126,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8661818</v>
+        <v>9259115</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1134,7 +1146,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8485884</v>
+        <v>9094459</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1142,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>8346926</v>
+        <v>8952206</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1150,7 +1162,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>8170957</v>
+        <v>8788526</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1158,7 +1170,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8031530</v>
+        <v>8661818</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1166,7 +1178,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7898013</v>
+        <v>8485884</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1174,7 +1186,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7764044</v>
+        <v>8346926</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1182,7 +1194,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7630005</v>
+        <v>8170957</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1190,7 +1202,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7511687</v>
+        <v>8031530</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1198,7 +1210,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7357487</v>
+        <v>7898013</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1206,7 +1218,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7239602</v>
+        <v>7764044</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1214,7 +1226,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7116301</v>
+        <v>7630005</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1222,7 +1234,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7008005</v>
+        <v>7511687</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1230,7 +1242,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>6894350</v>
+        <v>7357487</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1238,7 +1250,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6767607</v>
+        <v>7239602</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1246,7 +1258,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>6630422</v>
+        <v>7116301</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1254,7 +1266,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>6506082</v>
+        <v>7008005</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1262,7 +1274,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>6375770</v>
+        <v>6894350</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1270,7 +1282,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>6263390</v>
+        <v>6767607</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1278,7 +1290,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>6164489</v>
+        <v>6630422</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1286,7 +1298,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6056561</v>
+        <v>6506082</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1294,7 +1306,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>5921853</v>
+        <v>6375770</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1302,7 +1314,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>5806525</v>
+        <v>6263390</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1310,7 +1322,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>5689382</v>
+        <v>6164489</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1318,7 +1330,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>5587232</v>
+        <v>6056561</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1326,7 +1338,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>5492676</v>
+        <v>5921853</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1334,7 +1346,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>5405236</v>
+        <v>5806525</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1342,7 +1354,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>5307992</v>
+        <v>5689382</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1350,7 +1362,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5208470</v>
+        <v>5587232</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1358,7 +1370,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5100078</v>
+        <v>5492676</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1366,7 +1378,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4994165</v>
+        <v>5405236</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1374,7 +1386,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4895198</v>
+        <v>5307992</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1382,7 +1394,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>4799688</v>
+        <v>5208470</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1390,7 +1402,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>4711379</v>
+        <v>5100078</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1398,7 +1410,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>4631845</v>
+        <v>4994165</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1406,7 +1418,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>4540125</v>
+        <v>4895198</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1414,7 +1426,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>4439942</v>
+        <v>4799688</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1422,7 +1434,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>4344822</v>
+        <v>4711379</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1430,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>4259760</v>
+        <v>4631845</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1438,7 +1450,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>4175344</v>
+        <v>4540125</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1446,7 +1458,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>4099553</v>
+        <v>4439942</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1454,7 +1466,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4021873</v>
+        <v>4344822</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1462,7 +1474,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3935930</v>
+        <v>4259760</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1470,7 +1482,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3843585</v>
+        <v>4175344</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1478,7 +1490,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>3753229</v>
+        <v>4099553</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1486,7 +1498,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3660582</v>
+        <v>4021873</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1494,7 +1506,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>3580956</v>
+        <v>3935930</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1502,7 +1514,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>3504649</v>
+        <v>3843585</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1510,7 +1522,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>3425295</v>
+        <v>3753229</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1518,7 +1530,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>3341746</v>
+        <v>3660582</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1526,7 +1538,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>3254831</v>
+        <v>3580956</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1534,7 +1546,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>3192161</v>
+        <v>3504649</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1542,7 +1554,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>3114674</v>
+        <v>3425295</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1550,7 +1562,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>3040045</v>
+        <v>3341746</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1558,7 +1570,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2969756</v>
+        <v>3254831</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1566,7 +1578,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2895027</v>
+        <v>3192161</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1574,7 +1586,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2808856</v>
+        <v>3114674</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1582,7 +1594,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2707035</v>
+        <v>3040045</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1590,7 +1602,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2621587</v>
+        <v>2969756</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1598,7 +1610,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2547476</v>
+        <v>2895027</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1606,7 +1618,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2470460</v>
+        <v>2808856</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1614,7 +1626,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2399600</v>
+        <v>2707035</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1622,7 +1634,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2316012</v>
+        <v>2621587</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1630,7 +1642,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2238500</v>
+        <v>2547476</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1638,7 +1650,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2151018</v>
+        <v>2470460</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1646,7 +1658,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2054499</v>
+        <v>2399600</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1654,7 +1666,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1974713</v>
+        <v>2316012</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1662,7 +1674,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1915946</v>
+        <v>2238500</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1670,7 +1682,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1845341</v>
+        <v>2151018</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1678,7 +1690,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1770204</v>
+        <v>2054499</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1686,7 +1698,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1690454</v>
+        <v>1974713</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1694,7 +1706,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1594159</v>
+        <v>1915946</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -1702,7 +1714,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1509914</v>
+        <v>1845341</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1710,7 +1722,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1424922</v>
+        <v>1770204</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -1718,7 +1730,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1343959</v>
+        <v>1690454</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1726,7 +1738,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1270991</v>
+        <v>1594159</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -1734,7 +1746,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1196311</v>
+        <v>1509914</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1742,7 +1754,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1094856</v>
+        <v>1424922</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -1750,7 +1762,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1012130</v>
+        <v>1343959</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -1758,7 +1770,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>931610</v>
+        <v>1270991</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -1766,7 +1778,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>856527</v>
+        <v>1196311</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -1774,7 +1786,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>781427</v>
+        <v>1094856</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -1782,7 +1794,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>719190</v>
+        <v>1012130</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -1790,7 +1802,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>659795</v>
+        <v>931610</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -1798,7 +1810,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>592394</v>
+        <v>856527</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -1806,7 +1818,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>528724</v>
+        <v>781427</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -1814,7 +1826,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>466882</v>
+        <v>719190</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -1822,7 +1834,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>417964</v>
+        <v>659795</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -1830,7 +1842,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>377575</v>
+        <v>592394</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -1838,7 +1850,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>334762</v>
+        <v>528724</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -1846,7 +1858,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>303509</v>
+        <v>466882</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -1854,7 +1866,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>271122</v>
+        <v>417964</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -1862,7 +1874,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>241390</v>
+        <v>377575</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -1870,7 +1882,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>213506</v>
+        <v>334762</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -1878,7 +1890,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>195637</v>
+        <v>303509</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -1886,7 +1898,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>178565</v>
+        <v>271122</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -1894,7 +1906,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>139751</v>
+        <v>241390</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -1902,7 +1914,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>158781</v>
+        <v>213506</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -1910,7 +1922,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>144527</v>
+        <v>195637</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -1918,7 +1930,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>109467</v>
+        <v>178565</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -1926,7 +1938,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>125252</v>
+        <v>139751</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -1934,7 +1946,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>117569</v>
+        <v>158781</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -1942,7 +1954,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>112077</v>
+        <v>144527</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -1950,7 +1962,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>108774</v>
+        <v>109467</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -1958,7 +1970,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>104783</v>
+        <v>125252</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -1966,7 +1978,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>100872</v>
+        <v>117569</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -1974,7 +1986,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>96973</v>
+        <v>112077</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -1982,7 +1994,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>94071</v>
+        <v>108774</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -1990,7 +2002,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>91910</v>
+        <v>104783</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -1998,7 +2010,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>89450</v>
+        <v>100872</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -2006,7 +2018,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>87549</v>
+        <v>96973</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -2014,7 +2026,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>85217</v>
+        <v>94071</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -2022,7 +2034,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>83208</v>
+        <v>91910</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -2030,7 +2042,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>81795</v>
+        <v>89450</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -2038,7 +2050,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>80579</v>
+        <v>87549</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -2046,7 +2058,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>79635</v>
+        <v>85217</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -2054,7 +2066,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>78657</v>
+        <v>83208</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -2062,7 +2074,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>78121</v>
+        <v>81795</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -2070,7 +2082,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>77718</v>
+        <v>80579</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -2078,7 +2090,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>76141</v>
+        <v>79635</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -2086,7 +2098,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>75304</v>
+        <v>78657</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -2094,7 +2106,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>74834</v>
+        <v>78121</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -2102,7 +2114,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>74435</v>
+        <v>77718</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -2110,7 +2122,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>72688</v>
+        <v>76141</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -2118,7 +2130,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>70751</v>
+        <v>75304</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -2126,7 +2138,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>68618</v>
+        <v>74834</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -2134,7 +2146,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>66473</v>
+        <v>74435</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -2142,7 +2154,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>60098</v>
+        <v>72688</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -2150,7 +2162,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>44908</v>
+        <v>70751</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -2158,7 +2170,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>44582</v>
+        <v>68618</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -2166,7 +2178,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>42500</v>
+        <v>66473</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -2174,7 +2186,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>39981</v>
+        <v>60098</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -2182,7 +2194,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>36944</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -2190,7 +2202,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>34245</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -2198,7 +2210,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>30695</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -2206,7 +2218,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>27516</v>
+        <v>39981</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -2214,7 +2226,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>23833</v>
+        <v>36944</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -2222,7 +2234,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>19750</v>
+        <v>34245</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -2230,7 +2242,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>16694</v>
+        <v>30695</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -2238,7 +2250,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>12049</v>
+        <v>27516</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -2246,7 +2258,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>22008</v>
+        <v>23833</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -2254,7 +2266,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>18160</v>
+        <v>19750</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -2262,7 +2274,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>14400</v>
+        <v>16694</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -2270,7 +2282,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>11743</v>
+        <v>12049</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -2278,7 +2290,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>8504</v>
+        <v>22008</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -2286,7 +2298,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>5044</v>
+        <v>18160</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -2294,7 +2306,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>3556</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -2302,7 +2314,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>2379</v>
+        <v>11743</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -2310,7 +2322,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1594</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -2318,7 +2330,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1208</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -2326,6 +2338,38 @@
         <v>175</v>
       </c>
       <c r="B176">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
         <v>555</v>
       </c>
     </row>

--- a/data_frame_csv/covid_cases_validated.xlsx
+++ b/data_frame_csv/covid_cases_validated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>date</t>
   </si>
@@ -27,7 +27,22 @@
     <t>confirmed</t>
   </si>
   <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
     <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
   </si>
   <si>
     <t>2020-07-15</t>
@@ -922,15 +937,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -946,1430 +961,1494 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>13970798</v>
+        <v>15891077</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>44028</v>
+        <v>44036</v>
       </c>
       <c r="B3">
-        <v>13755958</v>
+        <v>15640169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="2">
+        <v>44035</v>
       </c>
       <c r="B4">
-        <v>13541118</v>
+        <v>15355978</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="2">
+        <v>44034</v>
       </c>
       <c r="B5">
-        <v>13311117</v>
+        <v>15108503</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="2">
+        <v>44033</v>
       </c>
       <c r="B6">
-        <v>13091650</v>
+        <v>14905797</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>12898144</v>
+        <v>14692105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>12706211</v>
+        <v>14492145</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>12487562</v>
+        <v>14273807</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>12258156</v>
+        <v>14041003</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>12031527</v>
+        <v>13791587</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>11820215</v>
+        <v>13541118</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>11611210</v>
+        <v>13311117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>11441040</v>
+        <v>13091650</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>11259376</v>
+        <v>12898144</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>11067453</v>
+        <v>12706211</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>10862570</v>
+        <v>12487562</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>10687287</v>
+        <v>12258156</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>10469512</v>
+        <v>12031527</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>10296269</v>
+        <v>11820215</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>10140612</v>
+        <v>11611210</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>9974534</v>
+        <v>11441040</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>9796832</v>
+        <v>11259376</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>9605264</v>
+        <v>11067453</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>9426005</v>
+        <v>10862570</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>9259115</v>
+        <v>10687287</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>9094459</v>
+        <v>10469512</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>8952206</v>
+        <v>10296269</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>8788526</v>
+        <v>10140612</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>8661818</v>
+        <v>9974534</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>8485884</v>
+        <v>9796832</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>8346926</v>
+        <v>9605264</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>8170957</v>
+        <v>9426005</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>8031530</v>
+        <v>9259115</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>7898013</v>
+        <v>9094459</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36">
-        <v>7764044</v>
+        <v>8952206</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37">
-        <v>7630005</v>
+        <v>8788526</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38">
-        <v>7511687</v>
+        <v>8661818</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39">
-        <v>7357487</v>
+        <v>8485884</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>7239602</v>
+        <v>8346926</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>7116301</v>
+        <v>8170957</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>7008005</v>
+        <v>8031530</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>6894350</v>
+        <v>7898013</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>6767607</v>
+        <v>7764044</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>6630422</v>
+        <v>7630005</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>6506082</v>
+        <v>7511687</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>6375770</v>
+        <v>7357487</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48">
-        <v>6263390</v>
+        <v>7239602</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>6164489</v>
+        <v>7116301</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>6056561</v>
+        <v>7008005</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>5921853</v>
+        <v>6894350</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>5806525</v>
+        <v>6767607</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>5689382</v>
+        <v>6630422</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54">
-        <v>5587232</v>
+        <v>6506082</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55">
-        <v>5492676</v>
+        <v>6375770</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>5405236</v>
+        <v>6263390</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57">
-        <v>5307992</v>
+        <v>6164489</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58">
-        <v>5208470</v>
+        <v>6056561</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59">
-        <v>5100078</v>
+        <v>5921853</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60">
-        <v>4994165</v>
+        <v>5806525</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61">
-        <v>4895198</v>
+        <v>5689382</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62">
-        <v>4799688</v>
+        <v>5587232</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63">
-        <v>4711379</v>
+        <v>5492676</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64">
-        <v>4631845</v>
+        <v>5405236</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65">
-        <v>4540125</v>
+        <v>5307992</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66">
-        <v>4439942</v>
+        <v>5208470</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67">
-        <v>4344822</v>
+        <v>5100078</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68">
-        <v>4259760</v>
+        <v>4994165</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69">
-        <v>4175344</v>
+        <v>4895198</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70">
-        <v>4099553</v>
+        <v>4799688</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71">
-        <v>4021873</v>
+        <v>4711379</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72">
-        <v>3935930</v>
+        <v>4631845</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73">
-        <v>3843585</v>
+        <v>4540125</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74">
-        <v>3753229</v>
+        <v>4439942</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B75">
-        <v>3660582</v>
+        <v>4344822</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B76">
-        <v>3580956</v>
+        <v>4259760</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B77">
-        <v>3504649</v>
+        <v>4175344</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B78">
-        <v>3425295</v>
+        <v>4099553</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79">
-        <v>3341746</v>
+        <v>4021873</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80">
-        <v>3254831</v>
+        <v>3935930</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B81">
-        <v>3192161</v>
+        <v>3843585</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B82">
-        <v>3114674</v>
+        <v>3753229</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B83">
-        <v>3040045</v>
+        <v>3660582</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B84">
-        <v>2969756</v>
+        <v>3580956</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B85">
-        <v>2895027</v>
+        <v>3504649</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B86">
-        <v>2808856</v>
+        <v>3425295</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B87">
-        <v>2707035</v>
+        <v>3341746</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B88">
-        <v>2621587</v>
+        <v>3254831</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B89">
-        <v>2547476</v>
+        <v>3192161</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B90">
-        <v>2470460</v>
+        <v>3114674</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B91">
-        <v>2399600</v>
+        <v>3040045</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B92">
-        <v>2316012</v>
+        <v>2969756</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B93">
-        <v>2238500</v>
+        <v>2895027</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B94">
-        <v>2151018</v>
+        <v>2808856</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B95">
-        <v>2054499</v>
+        <v>2707035</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B96">
-        <v>1974713</v>
+        <v>2621587</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97">
-        <v>1915946</v>
+        <v>2547476</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B98">
-        <v>1845341</v>
+        <v>2470460</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99">
-        <v>1770204</v>
+        <v>2399600</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B100">
-        <v>1690454</v>
+        <v>2316012</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B101">
-        <v>1594159</v>
+        <v>2238500</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B102">
-        <v>1509914</v>
+        <v>2151018</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B103">
-        <v>1424922</v>
+        <v>2054499</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B104">
-        <v>1343959</v>
+        <v>1974713</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B105">
-        <v>1270991</v>
+        <v>1915946</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B106">
-        <v>1196311</v>
+        <v>1845341</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B107">
-        <v>1094856</v>
+        <v>1770204</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B108">
-        <v>1012130</v>
+        <v>1690454</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B109">
-        <v>931610</v>
+        <v>1594159</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B110">
-        <v>856527</v>
+        <v>1509914</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B111">
-        <v>781427</v>
+        <v>1424922</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B112">
-        <v>719190</v>
+        <v>1343959</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B113">
-        <v>659795</v>
+        <v>1270991</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B114">
-        <v>592394</v>
+        <v>1196311</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B115">
-        <v>528724</v>
+        <v>1094856</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B116">
-        <v>466882</v>
+        <v>1012130</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B117">
-        <v>417964</v>
+        <v>931610</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B118">
-        <v>377575</v>
+        <v>856527</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B119">
-        <v>334762</v>
+        <v>781427</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B120">
-        <v>303509</v>
+        <v>719190</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B121">
-        <v>271122</v>
+        <v>659795</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B122">
-        <v>241390</v>
+        <v>592394</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B123">
-        <v>213506</v>
+        <v>528724</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B124">
-        <v>195637</v>
+        <v>466882</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B125">
-        <v>178565</v>
+        <v>417964</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B126">
-        <v>139751</v>
+        <v>377575</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B127">
-        <v>158781</v>
+        <v>334762</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B128">
-        <v>144527</v>
+        <v>303509</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B129">
-        <v>109467</v>
+        <v>271122</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B130">
-        <v>125252</v>
+        <v>241390</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B131">
-        <v>117569</v>
+        <v>213506</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B132">
-        <v>112077</v>
+        <v>195637</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B133">
-        <v>108774</v>
+        <v>178565</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B134">
-        <v>104783</v>
+        <v>139751</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B135">
-        <v>100872</v>
+        <v>158781</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B136">
-        <v>96973</v>
+        <v>144527</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B137">
-        <v>94071</v>
+        <v>109467</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B138">
-        <v>91910</v>
+        <v>125252</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139">
-        <v>89450</v>
+        <v>117569</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B140">
-        <v>87549</v>
+        <v>112077</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B141">
-        <v>85217</v>
+        <v>108774</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B142">
-        <v>83208</v>
+        <v>104783</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B143">
-        <v>81795</v>
+        <v>100872</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B144">
-        <v>80579</v>
+        <v>96973</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B145">
-        <v>79635</v>
+        <v>94071</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B146">
-        <v>78657</v>
+        <v>91910</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B147">
-        <v>78121</v>
+        <v>89450</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B148">
-        <v>77718</v>
+        <v>87549</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B149">
-        <v>76141</v>
+        <v>85217</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B150">
-        <v>75304</v>
+        <v>83208</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B151">
-        <v>74834</v>
+        <v>81795</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B152">
-        <v>74435</v>
+        <v>80579</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B153">
-        <v>72688</v>
+        <v>79635</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B154">
-        <v>70751</v>
+        <v>78657</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B155">
-        <v>68618</v>
+        <v>78121</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B156">
-        <v>66473</v>
+        <v>77718</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B157">
-        <v>60098</v>
+        <v>76141</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B158">
-        <v>44908</v>
+        <v>75304</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B159">
-        <v>44582</v>
+        <v>74834</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B160">
-        <v>42500</v>
+        <v>74435</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B161">
-        <v>39981</v>
+        <v>72688</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B162">
-        <v>36944</v>
+        <v>70751</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B163">
-        <v>34245</v>
+        <v>68618</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B164">
-        <v>30695</v>
+        <v>66473</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B165">
-        <v>27516</v>
+        <v>60098</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B166">
-        <v>23833</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B167">
-        <v>19750</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B168">
-        <v>16694</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B169">
-        <v>12049</v>
+        <v>39981</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B170">
-        <v>22008</v>
+        <v>36944</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B171">
-        <v>18160</v>
+        <v>34245</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B172">
-        <v>14400</v>
+        <v>30695</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B173">
-        <v>11743</v>
+        <v>27516</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B174">
-        <v>8504</v>
+        <v>23833</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B175">
-        <v>5044</v>
+        <v>19750</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B176">
-        <v>3556</v>
+        <v>16694</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B177">
-        <v>2379</v>
+        <v>12049</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B178">
-        <v>1594</v>
+        <v>22008</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B179">
-        <v>1208</v>
+        <v>18160</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181">
+        <v>11743</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>178</v>
+      </c>
+      <c r="B182">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>179</v>
       </c>
-      <c r="B180">
+      <c r="B183">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>182</v>
+      </c>
+      <c r="B186">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>184</v>
+      </c>
+      <c r="B188">
         <v>555</v>
       </c>
     </row>

--- a/data_frame_csv/covid_cases_validated.xlsx
+++ b/data_frame_csv/covid_cases_validated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="7030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>date</t>
   </si>
@@ -27,553 +27,568 @@
     <t>confirmed</t>
   </si>
   <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>2020-04-25</t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
+  </si>
+  <si>
+    <t>2020-04-23</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>2020-04-21</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>2020-04-18</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
+  </si>
+  <si>
+    <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>2020-04-14</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2020-04-12</t>
+  </si>
+  <si>
+    <t>2020-04-11</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>2020-04-08</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>2020-04-05</t>
+  </si>
+  <si>
+    <t>2020-04-04</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>2020-04-02</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
+  </si>
+  <si>
+    <t>2020-03-21</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>2020-03-14</t>
+  </si>
+  <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-08</t>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-02-23</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>2020-02-15</t>
+  </si>
+  <si>
+    <t>2020-02-14</t>
+  </si>
+  <si>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>2020-02-12</t>
+  </si>
+  <si>
+    <t>2020-02-11</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>2020-02-09</t>
+  </si>
+  <si>
+    <t>2020-02-08</t>
+  </si>
+  <si>
+    <t>2020-02-07</t>
+  </si>
+  <si>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>2020-02-05</t>
+  </si>
+  <si>
+    <t>2020-02-04</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-01-26</t>
+  </si>
+  <si>
+    <t>2020-01-25</t>
+  </si>
+  <si>
+    <t>2020-01-24</t>
+  </si>
+  <si>
+    <t>2020-01-23</t>
+  </si>
+  <si>
+    <t>2020-01-22</t>
+  </si>
+  <si>
+    <t>2020-01-21</t>
+  </si>
+  <si>
     <t>2020-07-25</t>
-  </si>
-  <si>
-    <t>2020-07-20</t>
-  </si>
-  <si>
-    <t>2020-07-19</t>
-  </si>
-  <si>
-    <t>2020-07-18</t>
-  </si>
-  <si>
-    <t>2020-07-17</t>
-  </si>
-  <si>
-    <t>2020-07-16</t>
-  </si>
-  <si>
-    <t>2020-07-15</t>
-  </si>
-  <si>
-    <t>2020-07-14</t>
-  </si>
-  <si>
-    <t>2020-07-13</t>
-  </si>
-  <si>
-    <t>2020-07-12</t>
-  </si>
-  <si>
-    <t>2020-07-11</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>2020-07-07</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>2020-07-05</t>
-  </si>
-  <si>
-    <t>2020-07-04</t>
-  </si>
-  <si>
-    <t>2020-07-03</t>
-  </si>
-  <si>
-    <t>2020-07-02</t>
-  </si>
-  <si>
-    <t>2020-07-01</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>2020-06-29</t>
-  </si>
-  <si>
-    <t>2020-06-28</t>
-  </si>
-  <si>
-    <t>2020-06-27</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>2020-06-25</t>
-  </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-06-21</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>2020-06-19</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>2020-06-17</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>2020-06-14</t>
-  </si>
-  <si>
-    <t>2020-06-13</t>
-  </si>
-  <si>
-    <t>2020-06-12</t>
-  </si>
-  <si>
-    <t>2020-06-11</t>
-  </si>
-  <si>
-    <t>2020-06-10</t>
-  </si>
-  <si>
-    <t>2020-06-09</t>
-  </si>
-  <si>
-    <t>2020-06-08</t>
-  </si>
-  <si>
-    <t>2020-06-07</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>2020-06-05</t>
-  </si>
-  <si>
-    <t>2020-06-04</t>
-  </si>
-  <si>
-    <t>2020-06-03</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>2020-06-01</t>
-  </si>
-  <si>
-    <t>2020-05-31</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>2020-05-29</t>
-  </si>
-  <si>
-    <t>2020-05-28</t>
-  </si>
-  <si>
-    <t>2020-05-27</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>2020-05-25</t>
-  </si>
-  <si>
-    <t>2020-05-24</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>2020-05-21</t>
-  </si>
-  <si>
-    <t>2020-05-20</t>
-  </si>
-  <si>
-    <t>2020-05-19</t>
-  </si>
-  <si>
-    <t>2020-05-18</t>
-  </si>
-  <si>
-    <t>2020-05-17</t>
-  </si>
-  <si>
-    <t>2020-05-16</t>
-  </si>
-  <si>
-    <t>2020-05-15</t>
-  </si>
-  <si>
-    <t>2020-05-14</t>
-  </si>
-  <si>
-    <t>2020-05-13</t>
-  </si>
-  <si>
-    <t>2020-05-12</t>
-  </si>
-  <si>
-    <t>2020-05-11</t>
-  </si>
-  <si>
-    <t>2020-05-10</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>2020-05-07</t>
-  </si>
-  <si>
-    <t>2020-05-06</t>
-  </si>
-  <si>
-    <t>2020-05-05</t>
-  </si>
-  <si>
-    <t>2020-05-04</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>2020-05-01</t>
-  </si>
-  <si>
-    <t>2020-04-30</t>
-  </si>
-  <si>
-    <t>2020-04-29</t>
-  </si>
-  <si>
-    <t>2020-04-28</t>
-  </si>
-  <si>
-    <t>2020-04-27</t>
-  </si>
-  <si>
-    <t>2020-04-26</t>
-  </si>
-  <si>
-    <t>2020-04-25</t>
-  </si>
-  <si>
-    <t>2020-04-24</t>
-  </si>
-  <si>
-    <t>2020-04-23</t>
-  </si>
-  <si>
-    <t>2020-04-22</t>
-  </si>
-  <si>
-    <t>2020-04-21</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>2020-04-18</t>
-  </si>
-  <si>
-    <t>2020-04-17</t>
-  </si>
-  <si>
-    <t>2020-04-16</t>
-  </si>
-  <si>
-    <t>2020-04-15</t>
-  </si>
-  <si>
-    <t>2020-04-14</t>
-  </si>
-  <si>
-    <t>2020-04-13</t>
-  </si>
-  <si>
-    <t>2020-04-12</t>
-  </si>
-  <si>
-    <t>2020-04-11</t>
-  </si>
-  <si>
-    <t>2020-04-10</t>
-  </si>
-  <si>
-    <t>2020-04-09</t>
-  </si>
-  <si>
-    <t>2020-04-08</t>
-  </si>
-  <si>
-    <t>2020-04-07</t>
-  </si>
-  <si>
-    <t>2020-04-06</t>
-  </si>
-  <si>
-    <t>2020-04-05</t>
-  </si>
-  <si>
-    <t>2020-04-04</t>
-  </si>
-  <si>
-    <t>2020-04-03</t>
-  </si>
-  <si>
-    <t>2020-04-02</t>
-  </si>
-  <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
-    <t>2020-03-31</t>
-  </si>
-  <si>
-    <t>2020-03-30</t>
-  </si>
-  <si>
-    <t>2020-03-29</t>
-  </si>
-  <si>
-    <t>2020-03-28</t>
-  </si>
-  <si>
-    <t>2020-03-27</t>
-  </si>
-  <si>
-    <t>2020-03-26</t>
-  </si>
-  <si>
-    <t>2020-03-25</t>
-  </si>
-  <si>
-    <t>2020-03-24</t>
-  </si>
-  <si>
-    <t>2020-03-23</t>
-  </si>
-  <si>
-    <t>2020-03-22</t>
-  </si>
-  <si>
-    <t>2020-03-21</t>
-  </si>
-  <si>
-    <t>2020-03-20</t>
-  </si>
-  <si>
-    <t>2020-03-19</t>
-  </si>
-  <si>
-    <t>2020-03-18</t>
-  </si>
-  <si>
-    <t>2020-03-17</t>
-  </si>
-  <si>
-    <t>2020-03-16</t>
-  </si>
-  <si>
-    <t>2020-03-15</t>
-  </si>
-  <si>
-    <t>2020-03-14</t>
-  </si>
-  <si>
-    <t>2020-03-13</t>
-  </si>
-  <si>
-    <t>2020-03-12</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>2020-03-09</t>
-  </si>
-  <si>
-    <t>2020-03-08</t>
-  </si>
-  <si>
-    <t>2020-03-07</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
-  </si>
-  <si>
-    <t>2020-03-05</t>
-  </si>
-  <si>
-    <t>2020-03-04</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2020-03-01</t>
-  </si>
-  <si>
-    <t>2020-02-29</t>
-  </si>
-  <si>
-    <t>2020-02-28</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>2020-02-26</t>
-  </si>
-  <si>
-    <t>2020-02-25</t>
-  </si>
-  <si>
-    <t>2020-02-24</t>
-  </si>
-  <si>
-    <t>2020-02-23</t>
-  </si>
-  <si>
-    <t>2020-02-22</t>
-  </si>
-  <si>
-    <t>2020-02-21</t>
-  </si>
-  <si>
-    <t>2020-02-20</t>
-  </si>
-  <si>
-    <t>2020-02-19</t>
-  </si>
-  <si>
-    <t>2020-02-18</t>
-  </si>
-  <si>
-    <t>2020-02-17</t>
-  </si>
-  <si>
-    <t>2020-02-16</t>
-  </si>
-  <si>
-    <t>2020-02-15</t>
-  </si>
-  <si>
-    <t>2020-02-14</t>
-  </si>
-  <si>
-    <t>2020-02-13</t>
-  </si>
-  <si>
-    <t>2020-02-12</t>
-  </si>
-  <si>
-    <t>2020-02-11</t>
-  </si>
-  <si>
-    <t>2020-02-10</t>
-  </si>
-  <si>
-    <t>2020-02-09</t>
-  </si>
-  <si>
-    <t>2020-02-08</t>
-  </si>
-  <si>
-    <t>2020-02-07</t>
-  </si>
-  <si>
-    <t>2020-02-06</t>
-  </si>
-  <si>
-    <t>2020-02-05</t>
-  </si>
-  <si>
-    <t>2020-02-04</t>
-  </si>
-  <si>
-    <t>2020-02-03</t>
-  </si>
-  <si>
-    <t>2020-02-02</t>
-  </si>
-  <si>
-    <t>2020-02-01</t>
-  </si>
-  <si>
-    <t>2020-01-31</t>
-  </si>
-  <si>
-    <t>2020-01-30</t>
-  </si>
-  <si>
-    <t>2020-01-29</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>2020-01-27</t>
-  </si>
-  <si>
-    <t>2020-01-26</t>
-  </si>
-  <si>
-    <t>2020-01-25</t>
-  </si>
-  <si>
-    <t>2020-01-24</t>
-  </si>
-  <si>
-    <t>2020-01-23</t>
-  </si>
-  <si>
-    <t>2020-01-22</t>
-  </si>
-  <si>
-    <t>2020-01-21</t>
   </si>
 </sst>
 </file>
@@ -629,12 +644,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,15 +951,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -961,1494 +975,1502 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>16177248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3">
         <v>15891077</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B3">
-        <v>15640169</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>44035</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>15355978</v>
+        <v>15774550</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>44034</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>15108503</v>
+        <v>15493882</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>44033</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>14905797</v>
+        <v>15212992</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>14692105</v>
+        <v>14931261</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>14492145</v>
+        <v>14692105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>14273807</v>
+        <v>14492145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>14041003</v>
+        <v>14273807</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>13791587</v>
+        <v>14041003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>13541118</v>
+        <v>13791587</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>13311117</v>
+        <v>13541118</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>13091650</v>
+        <v>13311117</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>12898144</v>
+        <v>13091650</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>12706211</v>
+        <v>12898144</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>12487562</v>
+        <v>12706211</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>12258156</v>
+        <v>12487562</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>12031527</v>
+        <v>12258156</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>11820215</v>
+        <v>12031527</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>11611210</v>
+        <v>11820215</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>11441040</v>
+        <v>11611210</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>11259376</v>
+        <v>11441040</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>11067453</v>
+        <v>11259376</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>10862570</v>
+        <v>11067453</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>10687287</v>
+        <v>10862570</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>10469512</v>
+        <v>10687287</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>10296269</v>
+        <v>10469512</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>10140612</v>
+        <v>10296269</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>9974534</v>
+        <v>10140612</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>9796832</v>
+        <v>9974534</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>9605264</v>
+        <v>9796832</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>9426005</v>
+        <v>9605264</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>9259115</v>
+        <v>9426005</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>9094459</v>
+        <v>9259115</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>8952206</v>
+        <v>9094459</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>8788526</v>
+        <v>8952206</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>8661818</v>
+        <v>8788526</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>8485884</v>
+        <v>8661818</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>8346926</v>
+        <v>8485884</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>8170957</v>
+        <v>8346926</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>8031530</v>
+        <v>8170957</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>7898013</v>
+        <v>8031530</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>7764044</v>
+        <v>7898013</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>7630005</v>
+        <v>7764044</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>7511687</v>
+        <v>7630005</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>7357487</v>
+        <v>7511687</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>7239602</v>
+        <v>7357487</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>7116301</v>
+        <v>7239602</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>7008005</v>
+        <v>7116301</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>6894350</v>
+        <v>7008005</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>6767607</v>
+        <v>6894350</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>6630422</v>
+        <v>6767607</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>6506082</v>
+        <v>6630422</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>6375770</v>
+        <v>6506082</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>6263390</v>
+        <v>6375770</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>6164489</v>
+        <v>6263390</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>6056561</v>
+        <v>6164489</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>5921853</v>
+        <v>6056561</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>5806525</v>
+        <v>5921853</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>5689382</v>
+        <v>5806525</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>5587232</v>
+        <v>5689382</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>5492676</v>
+        <v>5587232</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>5405236</v>
+        <v>5492676</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>5307992</v>
+        <v>5405236</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>5208470</v>
+        <v>5307992</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>5100078</v>
+        <v>5208470</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>4994165</v>
+        <v>5100078</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>4895198</v>
+        <v>4994165</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>4799688</v>
+        <v>4895198</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>4711379</v>
+        <v>4799688</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>4631845</v>
+        <v>4711379</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>4540125</v>
+        <v>4631845</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>4439942</v>
+        <v>4540125</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>4344822</v>
+        <v>4439942</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>4259760</v>
+        <v>4344822</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>4175344</v>
+        <v>4259760</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>4099553</v>
+        <v>4175344</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>4021873</v>
+        <v>4099553</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>3935930</v>
+        <v>4021873</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>3843585</v>
+        <v>3935930</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>3753229</v>
+        <v>3843585</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>3660582</v>
+        <v>3753229</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>3580956</v>
+        <v>3660582</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>3504649</v>
+        <v>3580956</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>3425295</v>
+        <v>3504649</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>3341746</v>
+        <v>3425295</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>3254831</v>
+        <v>3341746</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>3192161</v>
+        <v>3254831</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>3114674</v>
+        <v>3192161</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>3040045</v>
+        <v>3114674</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>2969756</v>
+        <v>3040045</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>2895027</v>
+        <v>2969756</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>2808856</v>
+        <v>2895027</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>2707035</v>
+        <v>2808856</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>2621587</v>
+        <v>2707035</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>2547476</v>
+        <v>2621587</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>2470460</v>
+        <v>2547476</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>2399600</v>
+        <v>2470460</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>2316012</v>
+        <v>2399600</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>2238500</v>
+        <v>2316012</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>2151018</v>
+        <v>2238500</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>2054499</v>
+        <v>2151018</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>1974713</v>
+        <v>2054499</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>1915946</v>
+        <v>1974713</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>1845341</v>
+        <v>1915946</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>1770204</v>
+        <v>1845341</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>1690454</v>
+        <v>1770204</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>1594159</v>
+        <v>1690454</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>1509914</v>
+        <v>1594159</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>1424922</v>
+        <v>1509914</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>1343959</v>
+        <v>1424922</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>1270991</v>
+        <v>1343959</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>1196311</v>
+        <v>1270991</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>1094856</v>
+        <v>1196311</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>1012130</v>
+        <v>1094856</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>931610</v>
+        <v>1012130</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>856527</v>
+        <v>931610</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>781427</v>
+        <v>856527</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>719190</v>
+        <v>781427</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>659795</v>
+        <v>719190</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>592394</v>
+        <v>659795</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>528724</v>
+        <v>592394</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>466882</v>
+        <v>528724</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>417964</v>
+        <v>466882</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>377575</v>
+        <v>417964</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>334762</v>
+        <v>377575</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>303509</v>
+        <v>334762</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>271122</v>
+        <v>303509</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>241390</v>
+        <v>271122</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>213506</v>
+        <v>241390</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>195637</v>
+        <v>213506</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>178565</v>
+        <v>195637</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>139751</v>
+        <v>178565</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>158781</v>
+        <v>139751</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>144527</v>
+        <v>158781</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>109467</v>
+        <v>144527</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>125252</v>
+        <v>109467</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>117569</v>
+        <v>125252</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>112077</v>
+        <v>117569</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>108774</v>
+        <v>112077</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>104783</v>
+        <v>108774</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>100872</v>
+        <v>104783</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>96973</v>
+        <v>100872</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>94071</v>
+        <v>96973</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>91910</v>
+        <v>94071</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>89450</v>
+        <v>91910</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>87549</v>
+        <v>89450</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>85217</v>
+        <v>87549</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>83208</v>
+        <v>85217</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>81795</v>
+        <v>83208</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>80579</v>
+        <v>81795</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B153">
-        <v>79635</v>
+        <v>80579</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>78657</v>
+        <v>79635</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>78121</v>
+        <v>78657</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>77718</v>
+        <v>78121</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>76141</v>
+        <v>77718</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>75304</v>
+        <v>76141</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>74834</v>
+        <v>75304</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>74435</v>
+        <v>74834</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>72688</v>
+        <v>74435</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>70751</v>
+        <v>72688</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>68618</v>
+        <v>70751</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>66473</v>
+        <v>68618</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B165">
-        <v>60098</v>
+        <v>66473</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B166">
-        <v>44908</v>
+        <v>60098</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B167">
-        <v>44582</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B168">
-        <v>42500</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B169">
-        <v>39981</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B170">
-        <v>36944</v>
+        <v>39981</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B171">
-        <v>34245</v>
+        <v>36944</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B172">
-        <v>30695</v>
+        <v>34245</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B173">
-        <v>27516</v>
+        <v>30695</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B174">
-        <v>23833</v>
+        <v>27516</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B175">
-        <v>19750</v>
+        <v>23833</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B176">
-        <v>16694</v>
+        <v>19750</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B177">
-        <v>12049</v>
+        <v>16694</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B178">
-        <v>22008</v>
+        <v>12049</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>18160</v>
+        <v>22008</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>14400</v>
+        <v>18160</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B181">
-        <v>11743</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B182">
-        <v>8504</v>
+        <v>11743</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B183">
-        <v>5044</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B184">
-        <v>3556</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B185">
-        <v>2379</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B186">
-        <v>1594</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B187">
-        <v>1208</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B188">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
         <v>555</v>
       </c>
     </row>
